--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il17c</t>
   </si>
   <si>
     <t>Il17ra</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1238380491957</v>
+        <v>1.2714235</v>
       </c>
       <c r="H2">
-        <v>1.1238380491957</v>
+        <v>2.542847</v>
       </c>
       <c r="I2">
-        <v>0.2293512841989244</v>
+        <v>0.1967620139026182</v>
       </c>
       <c r="J2">
-        <v>0.2293512841989244</v>
+        <v>0.1416681286530974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10532393797972</v>
+        <v>1.2072</v>
       </c>
       <c r="N2">
-        <v>1.10532393797972</v>
+        <v>2.4144</v>
       </c>
       <c r="O2">
-        <v>0.02193166705883848</v>
+        <v>0.02324281680092149</v>
       </c>
       <c r="P2">
-        <v>0.02193166705883848</v>
+        <v>0.01600937869506973</v>
       </c>
       <c r="Q2">
-        <v>1.242205098188437</v>
+        <v>1.5348624492</v>
       </c>
       <c r="R2">
-        <v>1.242205098188437</v>
+        <v>6.1394497968</v>
       </c>
       <c r="S2">
-        <v>0.005030056004567853</v>
+        <v>0.004573303442518922</v>
       </c>
       <c r="T2">
-        <v>0.005030056004567853</v>
+        <v>0.002268018720629295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1238380491957</v>
+        <v>1.2714235</v>
       </c>
       <c r="H3">
-        <v>1.1238380491957</v>
+        <v>2.542847</v>
       </c>
       <c r="I3">
-        <v>0.2293512841989244</v>
+        <v>0.1967620139026182</v>
       </c>
       <c r="J3">
-        <v>0.2293512841989244</v>
+        <v>0.1416681286530974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1495748227648</v>
+        <v>12.885218</v>
       </c>
       <c r="N3">
-        <v>12.1495748227648</v>
+        <v>38.655654</v>
       </c>
       <c r="O3">
-        <v>0.2410699893158499</v>
+        <v>0.2480854551142611</v>
       </c>
       <c r="P3">
-        <v>0.2410699893158499</v>
+        <v>0.2563175130846533</v>
       </c>
       <c r="Q3">
-        <v>13.65415446737319</v>
+        <v>16.382568967823</v>
       </c>
       <c r="R3">
-        <v>13.65415446737319</v>
+        <v>98.295413806938</v>
       </c>
       <c r="S3">
-        <v>0.05528971163141114</v>
+        <v>0.0488137937682296</v>
       </c>
       <c r="T3">
-        <v>0.05528971163141114</v>
+        <v>0.03631202241971864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1238380491957</v>
+        <v>1.2714235</v>
       </c>
       <c r="H4">
-        <v>1.1238380491957</v>
+        <v>2.542847</v>
       </c>
       <c r="I4">
-        <v>0.2293512841989244</v>
+        <v>0.1967620139026182</v>
       </c>
       <c r="J4">
-        <v>0.2293512841989244</v>
+        <v>0.1416681286530974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.9162150843682</v>
+        <v>15.45629366666667</v>
       </c>
       <c r="N4">
-        <v>14.9162150843682</v>
+        <v>46.368881</v>
       </c>
       <c r="O4">
-        <v>0.2959652385764127</v>
+        <v>0.2975876425742018</v>
       </c>
       <c r="P4">
-        <v>0.2959652385764127</v>
+        <v>0.3074622993686314</v>
       </c>
       <c r="Q4">
-        <v>16.76341006179983</v>
+        <v>19.65149499070117</v>
       </c>
       <c r="R4">
-        <v>16.76341006179983</v>
+        <v>117.908969944207</v>
       </c>
       <c r="S4">
-        <v>0.06788000754574128</v>
+        <v>0.05855394386543247</v>
       </c>
       <c r="T4">
-        <v>0.06788000754574128</v>
+        <v>0.04355760858293242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1238380491957</v>
+        <v>1.2714235</v>
       </c>
       <c r="H5">
-        <v>1.1238380491957</v>
+        <v>2.542847</v>
       </c>
       <c r="I5">
-        <v>0.2293512841989244</v>
+        <v>0.1967620139026182</v>
       </c>
       <c r="J5">
-        <v>0.2293512841989244</v>
+        <v>0.1416681286530974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7789839780666</v>
+        <v>17.833258</v>
       </c>
       <c r="N5">
-        <v>17.7789839780666</v>
+        <v>53.499774</v>
       </c>
       <c r="O5">
-        <v>0.3527678573252202</v>
+        <v>0.3433525088283362</v>
       </c>
       <c r="P5">
-        <v>0.3527678573252202</v>
+        <v>0.3547457513529844</v>
       </c>
       <c r="Q5">
-        <v>19.98069867059197</v>
+        <v>22.673623302763</v>
       </c>
       <c r="R5">
-        <v>19.98069867059197</v>
+        <v>136.041739816578</v>
       </c>
       <c r="S5">
-        <v>0.08090776110164218</v>
+        <v>0.06755873111557993</v>
       </c>
       <c r="T5">
-        <v>0.08090776110164218</v>
+        <v>0.0502561667418143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.1238380491957</v>
+        <v>1.2714235</v>
       </c>
       <c r="H6">
-        <v>1.1238380491957</v>
+        <v>2.542847</v>
       </c>
       <c r="I6">
-        <v>0.2293512841989244</v>
+        <v>0.1967620139026182</v>
       </c>
       <c r="J6">
-        <v>0.2293512841989244</v>
+        <v>0.1416681286530974</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733382747778345</v>
+        <v>0.7595746666666666</v>
       </c>
       <c r="N6">
-        <v>0.733382747778345</v>
+        <v>2.278724</v>
       </c>
       <c r="O6">
-        <v>0.01455166734230802</v>
+        <v>0.01462446555993567</v>
       </c>
       <c r="P6">
-        <v>0.01455166734230802</v>
+        <v>0.01510973966929427</v>
       </c>
       <c r="Q6">
-        <v>0.8242034365769974</v>
+        <v>0.9657410812046666</v>
       </c>
       <c r="R6">
-        <v>0.8242034365769974</v>
+        <v>5.794446487228</v>
       </c>
       <c r="S6">
-        <v>0.003337443592193892</v>
+        <v>0.002877539295822423</v>
       </c>
       <c r="T6">
-        <v>0.003337443592193892</v>
+        <v>0.002140568543384389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.1238380491957</v>
+        <v>1.2714235</v>
       </c>
       <c r="H7">
-        <v>1.1238380491957</v>
+        <v>2.542847</v>
       </c>
       <c r="I7">
-        <v>0.2293512841989244</v>
+        <v>0.1967620139026182</v>
       </c>
       <c r="J7">
-        <v>0.2293512841989244</v>
+        <v>0.1416681286530974</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.71505662251452</v>
+        <v>3.797083</v>
       </c>
       <c r="N7">
-        <v>3.71505662251452</v>
+        <v>7.594166</v>
       </c>
       <c r="O7">
-        <v>0.07371358038137085</v>
+        <v>0.07310711112234373</v>
       </c>
       <c r="P7">
-        <v>0.07371358038137085</v>
+        <v>0.05035531782936668</v>
       </c>
       <c r="Q7">
-        <v>4.175121987298285</v>
+        <v>4.8277005576505</v>
       </c>
       <c r="R7">
-        <v>4.175121987298285</v>
+        <v>19.310802230602</v>
       </c>
       <c r="S7">
-        <v>0.01690630432336804</v>
+        <v>0.01438470241503485</v>
       </c>
       <c r="T7">
-        <v>0.01690630432336804</v>
+        <v>0.007133743644618327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.566869660699638</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H8">
-        <v>0.566869660699638</v>
+        <v>1.776986</v>
       </c>
       <c r="I8">
-        <v>0.1156859609335319</v>
+        <v>0.09166715995542474</v>
       </c>
       <c r="J8">
-        <v>0.1156859609335319</v>
+        <v>0.09900016841860833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.10532393797972</v>
+        <v>1.2072</v>
       </c>
       <c r="N8">
-        <v>1.10532393797972</v>
+        <v>2.4144</v>
       </c>
       <c r="O8">
-        <v>0.02193166705883848</v>
+        <v>0.02324281680092149</v>
       </c>
       <c r="P8">
-        <v>0.02193166705883848</v>
+        <v>0.01600937869506973</v>
       </c>
       <c r="Q8">
-        <v>0.6265746056857515</v>
+        <v>0.7150591664</v>
       </c>
       <c r="R8">
-        <v>0.6265746056857515</v>
+        <v>4.2903549984</v>
       </c>
       <c r="S8">
-        <v>0.002537185978576018</v>
+        <v>0.002130603005504703</v>
       </c>
       <c r="T8">
-        <v>0.002537185978576018</v>
+        <v>0.001584931187089183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.566869660699638</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H9">
-        <v>0.566869660699638</v>
+        <v>1.776986</v>
       </c>
       <c r="I9">
-        <v>0.1156859609335319</v>
+        <v>0.09166715995542474</v>
       </c>
       <c r="J9">
-        <v>0.1156859609335319</v>
+        <v>0.09900016841860833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.1495748227648</v>
+        <v>12.885218</v>
       </c>
       <c r="N9">
-        <v>12.1495748227648</v>
+        <v>38.655654</v>
       </c>
       <c r="O9">
-        <v>0.2410699893158499</v>
+        <v>0.2480854551142611</v>
       </c>
       <c r="P9">
-        <v>0.2410699893158499</v>
+        <v>0.2563175130846533</v>
       </c>
       <c r="Q9">
-        <v>6.887225357425546</v>
+        <v>7.632283997649333</v>
       </c>
       <c r="R9">
-        <v>6.887225357425546</v>
+        <v>68.69055597884399</v>
       </c>
       <c r="S9">
-        <v>0.02788841336624037</v>
+        <v>0.02274128909657331</v>
       </c>
       <c r="T9">
-        <v>0.02788841336624037</v>
+        <v>0.02537547696401952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.566869660699638</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H10">
-        <v>0.566869660699638</v>
+        <v>1.776986</v>
       </c>
       <c r="I10">
-        <v>0.1156859609335319</v>
+        <v>0.09166715995542474</v>
       </c>
       <c r="J10">
-        <v>0.1156859609335319</v>
+        <v>0.09900016841860833</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.9162150843682</v>
+        <v>15.45629366666667</v>
       </c>
       <c r="N10">
-        <v>14.9162150843682</v>
+        <v>46.368881</v>
       </c>
       <c r="O10">
-        <v>0.2959652385764127</v>
+        <v>0.2975876425742018</v>
       </c>
       <c r="P10">
-        <v>0.2959652385764127</v>
+        <v>0.3074622993686314</v>
       </c>
       <c r="Q10">
-        <v>8.455549783798624</v>
+        <v>9.155205819185111</v>
       </c>
       <c r="R10">
-        <v>8.455549783798624</v>
+        <v>82.396852372666</v>
       </c>
       <c r="S10">
-        <v>0.03423902302763433</v>
+        <v>0.02727901403260712</v>
       </c>
       <c r="T10">
-        <v>0.03423902302763433</v>
+        <v>0.03043881941986708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.566869660699638</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H11">
-        <v>0.566869660699638</v>
+        <v>1.776986</v>
       </c>
       <c r="I11">
-        <v>0.1156859609335319</v>
+        <v>0.09166715995542474</v>
       </c>
       <c r="J11">
-        <v>0.1156859609335319</v>
+        <v>0.09900016841860833</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.7789839780666</v>
+        <v>17.833258</v>
       </c>
       <c r="N11">
-        <v>17.7789839780666</v>
+        <v>53.499774</v>
       </c>
       <c r="O11">
-        <v>0.3527678573252202</v>
+        <v>0.3433525088283362</v>
       </c>
       <c r="P11">
-        <v>0.3527678573252202</v>
+        <v>0.3547457513529844</v>
       </c>
       <c r="Q11">
-        <v>10.07836661523091</v>
+        <v>10.56314993346267</v>
       </c>
       <c r="R11">
-        <v>10.07836661523091</v>
+        <v>95.068349401164</v>
       </c>
       <c r="S11">
-        <v>0.04081028856113119</v>
+        <v>0.03147414934786348</v>
       </c>
       <c r="T11">
-        <v>0.04081028856113119</v>
+        <v>0.03511988912973121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.566869660699638</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H12">
-        <v>0.566869660699638</v>
+        <v>1.776986</v>
       </c>
       <c r="I12">
-        <v>0.1156859609335319</v>
+        <v>0.09166715995542474</v>
       </c>
       <c r="J12">
-        <v>0.1156859609335319</v>
+        <v>0.09900016841860833</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.733382747778345</v>
+        <v>0.7595746666666666</v>
       </c>
       <c r="N12">
-        <v>0.733382747778345</v>
+        <v>2.278724</v>
       </c>
       <c r="O12">
-        <v>0.01455166734230802</v>
+        <v>0.01462446555993567</v>
       </c>
       <c r="P12">
-        <v>0.01455166734230802</v>
+        <v>0.01510973966929427</v>
       </c>
       <c r="Q12">
-        <v>0.4157324293960786</v>
+        <v>0.4499178495404444</v>
       </c>
       <c r="R12">
-        <v>0.4157324293960786</v>
+        <v>4.049260645864</v>
       </c>
       <c r="S12">
-        <v>0.001683423619679998</v>
+        <v>0.001340583223745223</v>
       </c>
       <c r="T12">
-        <v>0.001683423619679998</v>
+        <v>0.00149586677202146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.566869660699638</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H13">
-        <v>0.566869660699638</v>
+        <v>1.776986</v>
       </c>
       <c r="I13">
-        <v>0.1156859609335319</v>
+        <v>0.09166715995542474</v>
       </c>
       <c r="J13">
-        <v>0.1156859609335319</v>
+        <v>0.09900016841860833</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.71505662251452</v>
+        <v>3.797083</v>
       </c>
       <c r="N13">
-        <v>3.71505662251452</v>
+        <v>7.594166</v>
       </c>
       <c r="O13">
-        <v>0.07371358038137085</v>
+        <v>0.07310711112234373</v>
       </c>
       <c r="P13">
-        <v>0.07371358038137085</v>
+        <v>0.05035531782936668</v>
       </c>
       <c r="Q13">
-        <v>2.105952887084749</v>
+        <v>2.249121110612666</v>
       </c>
       <c r="R13">
-        <v>2.105952887084749</v>
+        <v>13.494726663676</v>
       </c>
       <c r="S13">
-        <v>0.008527626380270034</v>
+        <v>0.006701521249130894</v>
       </c>
       <c r="T13">
-        <v>0.008527626380270034</v>
+        <v>0.004985184945879852</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.14173247322996</v>
+        <v>1.270545666666666</v>
       </c>
       <c r="H14">
-        <v>1.14173247322996</v>
+        <v>3.811636999999999</v>
       </c>
       <c r="I14">
-        <v>0.2330031530204106</v>
+        <v>0.1966261628234636</v>
       </c>
       <c r="J14">
-        <v>0.2330031530204106</v>
+        <v>0.2123554743541023</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.10532393797972</v>
+        <v>1.2072</v>
       </c>
       <c r="N14">
-        <v>1.10532393797972</v>
+        <v>2.4144</v>
       </c>
       <c r="O14">
-        <v>0.02193166705883848</v>
+        <v>0.02324281680092149</v>
       </c>
       <c r="P14">
-        <v>0.02193166705883848</v>
+        <v>0.01600937869506973</v>
       </c>
       <c r="Q14">
-        <v>1.261984233429865</v>
+        <v>1.5338027288</v>
       </c>
       <c r="R14">
-        <v>1.261984233429865</v>
+        <v>9.202816372799999</v>
       </c>
       <c r="S14">
-        <v>0.005110147575703241</v>
+        <v>0.004570145880773923</v>
       </c>
       <c r="T14">
-        <v>0.005110147575703241</v>
+        <v>0.003399679206905993</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.14173247322996</v>
+        <v>1.270545666666666</v>
       </c>
       <c r="H15">
-        <v>1.14173247322996</v>
+        <v>3.811636999999999</v>
       </c>
       <c r="I15">
-        <v>0.2330031530204106</v>
+        <v>0.1966261628234636</v>
       </c>
       <c r="J15">
-        <v>0.2330031530204106</v>
+        <v>0.2123554743541023</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1495748227648</v>
+        <v>12.885218</v>
       </c>
       <c r="N15">
-        <v>12.1495748227648</v>
+        <v>38.655654</v>
       </c>
       <c r="O15">
-        <v>0.2410699893158499</v>
+        <v>0.2480854551142611</v>
       </c>
       <c r="P15">
-        <v>0.2410699893158499</v>
+        <v>0.2563175130846533</v>
       </c>
       <c r="Q15">
-        <v>13.87156411108771</v>
+        <v>16.37125789395533</v>
       </c>
       <c r="R15">
-        <v>13.87156411108771</v>
+        <v>147.341321045598</v>
       </c>
       <c r="S15">
-        <v>0.0561700676091897</v>
+        <v>0.04878009109142976</v>
       </c>
       <c r="T15">
-        <v>0.0561700676091897</v>
+        <v>0.0544304270763554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.14173247322996</v>
+        <v>1.270545666666666</v>
       </c>
       <c r="H16">
-        <v>1.14173247322996</v>
+        <v>3.811636999999999</v>
       </c>
       <c r="I16">
-        <v>0.2330031530204106</v>
+        <v>0.1966261628234636</v>
       </c>
       <c r="J16">
-        <v>0.2330031530204106</v>
+        <v>0.2123554743541023</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.9162150843682</v>
+        <v>15.45629366666667</v>
       </c>
       <c r="N16">
-        <v>14.9162150843682</v>
+        <v>46.368881</v>
       </c>
       <c r="O16">
-        <v>0.2959652385764127</v>
+        <v>0.2975876425742018</v>
       </c>
       <c r="P16">
-        <v>0.2959652385764127</v>
+        <v>0.3074622993686314</v>
       </c>
       <c r="Q16">
-        <v>17.03032713950574</v>
+        <v>19.63792694091077</v>
       </c>
       <c r="R16">
-        <v>17.03032713950574</v>
+        <v>176.741342468197</v>
       </c>
       <c r="S16">
-        <v>0.06896083377274219</v>
+        <v>0.05851351626304568</v>
       </c>
       <c r="T16">
-        <v>0.06896083377274219</v>
+        <v>0.06529130242842875</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.14173247322996</v>
+        <v>1.270545666666666</v>
       </c>
       <c r="H17">
-        <v>1.14173247322996</v>
+        <v>3.811636999999999</v>
       </c>
       <c r="I17">
-        <v>0.2330031530204106</v>
+        <v>0.1966261628234636</v>
       </c>
       <c r="J17">
-        <v>0.2330031530204106</v>
+        <v>0.2123554743541023</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7789839780666</v>
+        <v>17.833258</v>
       </c>
       <c r="N17">
-        <v>17.7789839780666</v>
+        <v>53.499774</v>
       </c>
       <c r="O17">
-        <v>0.3527678573252202</v>
+        <v>0.3433525088283362</v>
       </c>
       <c r="P17">
-        <v>0.3527678573252202</v>
+        <v>0.3547457513529844</v>
       </c>
       <c r="Q17">
-        <v>20.29884334879381</v>
+        <v>22.65796867444866</v>
       </c>
       <c r="R17">
-        <v>20.29884334879381</v>
+        <v>203.921718070038</v>
       </c>
       <c r="S17">
-        <v>0.08219602304103064</v>
+        <v>0.06751208630672516</v>
       </c>
       <c r="T17">
-        <v>0.08219602304103064</v>
+        <v>0.07533220230366545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.14173247322996</v>
+        <v>1.270545666666666</v>
       </c>
       <c r="H18">
-        <v>1.14173247322996</v>
+        <v>3.811636999999999</v>
       </c>
       <c r="I18">
-        <v>0.2330031530204106</v>
+        <v>0.1966261628234636</v>
       </c>
       <c r="J18">
-        <v>0.2330031530204106</v>
+        <v>0.2123554743541023</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.733382747778345</v>
+        <v>0.7595746666666666</v>
       </c>
       <c r="N18">
-        <v>0.733382747778345</v>
+        <v>2.278724</v>
       </c>
       <c r="O18">
-        <v>0.01455166734230802</v>
+        <v>0.01462446555993567</v>
       </c>
       <c r="P18">
-        <v>0.01455166734230802</v>
+        <v>0.01510973966929427</v>
       </c>
       <c r="Q18">
-        <v>0.8373268984451538</v>
+        <v>0.9650743012431108</v>
       </c>
       <c r="R18">
-        <v>0.8373268984451538</v>
+        <v>8.685668711187999</v>
       </c>
       <c r="S18">
-        <v>0.003390584372461906</v>
+        <v>0.002875552546394046</v>
       </c>
       <c r="T18">
-        <v>0.003390584372461906</v>
+        <v>0.003208635934839982</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.14173247322996</v>
+        <v>1.270545666666666</v>
       </c>
       <c r="H19">
-        <v>1.14173247322996</v>
+        <v>3.811636999999999</v>
       </c>
       <c r="I19">
-        <v>0.2330031530204106</v>
+        <v>0.1966261628234636</v>
       </c>
       <c r="J19">
-        <v>0.2330031530204106</v>
+        <v>0.2123554743541023</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.71505662251452</v>
+        <v>3.797083</v>
       </c>
       <c r="N19">
-        <v>3.71505662251452</v>
+        <v>7.594166</v>
       </c>
       <c r="O19">
-        <v>0.07371358038137085</v>
+        <v>0.07310711112234373</v>
       </c>
       <c r="P19">
-        <v>0.07371358038137085</v>
+        <v>0.05035531782936668</v>
       </c>
       <c r="Q19">
-        <v>4.241600785812845</v>
+        <v>4.824367351623665</v>
       </c>
       <c r="R19">
-        <v>4.241600785812845</v>
+        <v>28.94620410974199</v>
       </c>
       <c r="S19">
-        <v>0.01717549664928289</v>
+        <v>0.014374770735095</v>
       </c>
       <c r="T19">
-        <v>0.01717549664928289</v>
+        <v>0.01069322740390675</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.06763287781713</v>
+        <v>2.282028</v>
       </c>
       <c r="H20">
-        <v>2.06763287781713</v>
+        <v>6.846084</v>
       </c>
       <c r="I20">
-        <v>0.4219596018471331</v>
+        <v>0.3531603946774337</v>
       </c>
       <c r="J20">
-        <v>0.4219596018471331</v>
+        <v>0.3814118226074599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.10532393797972</v>
+        <v>1.2072</v>
       </c>
       <c r="N20">
-        <v>1.10532393797972</v>
+        <v>2.4144</v>
       </c>
       <c r="O20">
-        <v>0.02193166705883848</v>
+        <v>0.02324281680092149</v>
       </c>
       <c r="P20">
-        <v>0.02193166705883848</v>
+        <v>0.01600937869506973</v>
       </c>
       <c r="Q20">
-        <v>2.285404114805171</v>
+        <v>2.7548642016</v>
       </c>
       <c r="R20">
-        <v>2.285404114805171</v>
+        <v>16.5291852096</v>
       </c>
       <c r="S20">
-        <v>0.009254277499991371</v>
+        <v>0.008208442354828718</v>
       </c>
       <c r="T20">
-        <v>0.009254277499991371</v>
+        <v>0.006106166306899585</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.06763287781713</v>
+        <v>2.282028</v>
       </c>
       <c r="H21">
-        <v>2.06763287781713</v>
+        <v>6.846084</v>
       </c>
       <c r="I21">
-        <v>0.4219596018471331</v>
+        <v>0.3531603946774337</v>
       </c>
       <c r="J21">
-        <v>0.4219596018471331</v>
+        <v>0.3814118226074599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.1495748227648</v>
+        <v>12.885218</v>
       </c>
       <c r="N21">
-        <v>12.1495748227648</v>
+        <v>38.655654</v>
       </c>
       <c r="O21">
-        <v>0.2410699893158499</v>
+        <v>0.2480854551142611</v>
       </c>
       <c r="P21">
-        <v>0.2410699893158499</v>
+        <v>0.2563175130846533</v>
       </c>
       <c r="Q21">
-        <v>25.12086035504773</v>
+        <v>29.404428262104</v>
       </c>
       <c r="R21">
-        <v>25.12086035504773</v>
+        <v>264.639854358936</v>
       </c>
       <c r="S21">
-        <v>0.1017217967090086</v>
+        <v>0.08761395724188319</v>
       </c>
       <c r="T21">
-        <v>0.1017217967090086</v>
+        <v>0.09776252983182909</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.06763287781713</v>
+        <v>2.282028</v>
       </c>
       <c r="H22">
-        <v>2.06763287781713</v>
+        <v>6.846084</v>
       </c>
       <c r="I22">
-        <v>0.4219596018471331</v>
+        <v>0.3531603946774337</v>
       </c>
       <c r="J22">
-        <v>0.4219596018471331</v>
+        <v>0.3814118226074599</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.9162150843682</v>
+        <v>15.45629366666667</v>
       </c>
       <c r="N22">
-        <v>14.9162150843682</v>
+        <v>46.368881</v>
       </c>
       <c r="O22">
-        <v>0.2959652385764127</v>
+        <v>0.2975876425742018</v>
       </c>
       <c r="P22">
-        <v>0.2959652385764127</v>
+        <v>0.3074622993686314</v>
       </c>
       <c r="Q22">
-        <v>30.8412567210315</v>
+        <v>35.271694923556</v>
       </c>
       <c r="R22">
-        <v>30.8412567210315</v>
+        <v>317.445254312004</v>
       </c>
       <c r="S22">
-        <v>0.1248853742302948</v>
+        <v>0.1050961693026322</v>
       </c>
       <c r="T22">
-        <v>0.1248853742302948</v>
+        <v>0.1172697559852702</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.06763287781713</v>
+        <v>2.282028</v>
       </c>
       <c r="H23">
-        <v>2.06763287781713</v>
+        <v>6.846084</v>
       </c>
       <c r="I23">
-        <v>0.4219596018471331</v>
+        <v>0.3531603946774337</v>
       </c>
       <c r="J23">
-        <v>0.4219596018471331</v>
+        <v>0.3814118226074599</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.7789839780666</v>
+        <v>17.833258</v>
       </c>
       <c r="N23">
-        <v>17.7789839780666</v>
+        <v>53.499774</v>
       </c>
       <c r="O23">
-        <v>0.3527678573252202</v>
+        <v>0.3433525088283362</v>
       </c>
       <c r="P23">
-        <v>0.3527678573252202</v>
+        <v>0.3547457513529844</v>
       </c>
       <c r="Q23">
-        <v>36.76041180723448</v>
+        <v>40.695994087224</v>
       </c>
       <c r="R23">
-        <v>36.76041180723448</v>
+        <v>366.263946785016</v>
       </c>
       <c r="S23">
-        <v>0.1488537846214162</v>
+        <v>0.1212585075313023</v>
       </c>
       <c r="T23">
-        <v>0.1488537846214162</v>
+        <v>0.1353042235857946</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.06763287781713</v>
+        <v>2.282028</v>
       </c>
       <c r="H24">
-        <v>2.06763287781713</v>
+        <v>6.846084</v>
       </c>
       <c r="I24">
-        <v>0.4219596018471331</v>
+        <v>0.3531603946774337</v>
       </c>
       <c r="J24">
-        <v>0.4219596018471331</v>
+        <v>0.3814118226074599</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.733382747778345</v>
+        <v>0.7595746666666666</v>
       </c>
       <c r="N24">
-        <v>0.733382747778345</v>
+        <v>2.278724</v>
       </c>
       <c r="O24">
-        <v>0.01455166734230802</v>
+        <v>0.01462446555993567</v>
       </c>
       <c r="P24">
-        <v>0.01455166734230802</v>
+        <v>0.01510973966929427</v>
       </c>
       <c r="Q24">
-        <v>1.516366281330374</v>
+        <v>1.733370657424</v>
       </c>
       <c r="R24">
-        <v>1.516366281330374</v>
+        <v>15.600335916816</v>
       </c>
       <c r="S24">
-        <v>0.00614021575797222</v>
+        <v>0.005164782029093416</v>
       </c>
       <c r="T24">
-        <v>0.00614021575797222</v>
+        <v>0.005763033346389765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.282028</v>
+      </c>
+      <c r="H25">
+        <v>6.846084</v>
+      </c>
+      <c r="I25">
+        <v>0.3531603946774337</v>
+      </c>
+      <c r="J25">
+        <v>0.3814118226074599</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.797083</v>
+      </c>
+      <c r="N25">
+        <v>7.594166</v>
+      </c>
+      <c r="O25">
+        <v>0.07310711112234373</v>
+      </c>
+      <c r="P25">
+        <v>0.05035531782936668</v>
+      </c>
+      <c r="Q25">
+        <v>8.665049724324</v>
+      </c>
+      <c r="R25">
+        <v>51.990298345944</v>
+      </c>
+      <c r="S25">
+        <v>0.02581853621769391</v>
+      </c>
+      <c r="T25">
+        <v>0.01920611355127667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.8809556666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.642867</v>
+      </c>
+      <c r="I26">
+        <v>0.1363342828980721</v>
+      </c>
+      <c r="J26">
+        <v>0.1472404836661527</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.2072</v>
+      </c>
+      <c r="N26">
+        <v>2.4144</v>
+      </c>
+      <c r="O26">
+        <v>0.02324281680092149</v>
+      </c>
+      <c r="P26">
+        <v>0.01600937869506973</v>
+      </c>
+      <c r="Q26">
+        <v>1.0634896808</v>
+      </c>
+      <c r="R26">
+        <v>6.3809380848</v>
+      </c>
+      <c r="S26">
+        <v>0.003168792761084893</v>
+      </c>
+      <c r="T26">
+        <v>0.002357228662256669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.8809556666666666</v>
+      </c>
+      <c r="H27">
+        <v>2.642867</v>
+      </c>
+      <c r="I27">
+        <v>0.1363342828980721</v>
+      </c>
+      <c r="J27">
+        <v>0.1472404836661527</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.885218</v>
+      </c>
+      <c r="N27">
+        <v>38.655654</v>
+      </c>
+      <c r="O27">
+        <v>0.2480854551142611</v>
+      </c>
+      <c r="P27">
+        <v>0.2563175130846533</v>
+      </c>
+      <c r="Q27">
+        <v>11.35130581333533</v>
+      </c>
+      <c r="R27">
+        <v>102.161752320018</v>
+      </c>
+      <c r="S27">
+        <v>0.03382255262044463</v>
+      </c>
+      <c r="T27">
+        <v>0.0377403145986898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.8809556666666666</v>
+      </c>
+      <c r="H28">
+        <v>2.642867</v>
+      </c>
+      <c r="I28">
+        <v>0.1363342828980721</v>
+      </c>
+      <c r="J28">
+        <v>0.1472404836661527</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>15.45629366666667</v>
+      </c>
+      <c r="N28">
+        <v>46.368881</v>
+      </c>
+      <c r="O28">
+        <v>0.2975876425742018</v>
+      </c>
+      <c r="P28">
+        <v>0.3074622993686314</v>
+      </c>
+      <c r="Q28">
+        <v>13.61630949131411</v>
+      </c>
+      <c r="R28">
+        <v>122.546785421827</v>
+      </c>
+      <c r="S28">
+        <v>0.04057139784968159</v>
+      </c>
+      <c r="T28">
+        <v>0.04527089766814474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.8809556666666666</v>
+      </c>
+      <c r="H29">
+        <v>2.642867</v>
+      </c>
+      <c r="I29">
+        <v>0.1363342828980721</v>
+      </c>
+      <c r="J29">
+        <v>0.1472404836661527</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.833258</v>
+      </c>
+      <c r="N29">
+        <v>53.499774</v>
+      </c>
+      <c r="O29">
+        <v>0.3433525088283362</v>
+      </c>
+      <c r="P29">
+        <v>0.3547457513529844</v>
+      </c>
+      <c r="Q29">
+        <v>15.71030969022867</v>
+      </c>
+      <c r="R29">
+        <v>141.392787212058</v>
+      </c>
+      <c r="S29">
+        <v>0.04681071807236518</v>
+      </c>
+      <c r="T29">
+        <v>0.05223293600772619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.8809556666666666</v>
+      </c>
+      <c r="H30">
+        <v>2.642867</v>
+      </c>
+      <c r="I30">
+        <v>0.1363342828980721</v>
+      </c>
+      <c r="J30">
+        <v>0.1472404836661527</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7595746666666666</v>
+      </c>
+      <c r="N30">
+        <v>2.278724</v>
+      </c>
+      <c r="O30">
+        <v>0.01462446555993567</v>
+      </c>
+      <c r="P30">
+        <v>0.01510973966929427</v>
+      </c>
+      <c r="Q30">
+        <v>0.6691516068564444</v>
+      </c>
+      <c r="R30">
+        <v>6.022364461707999</v>
+      </c>
+      <c r="S30">
+        <v>0.001993816024881381</v>
+      </c>
+      <c r="T30">
+        <v>0.002224765376976543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.06763287781713</v>
-      </c>
-      <c r="H25">
-        <v>2.06763287781713</v>
-      </c>
-      <c r="I25">
-        <v>0.4219596018471331</v>
-      </c>
-      <c r="J25">
-        <v>0.4219596018471331</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.71505662251452</v>
-      </c>
-      <c r="N25">
-        <v>3.71505662251452</v>
-      </c>
-      <c r="O25">
-        <v>0.07371358038137085</v>
-      </c>
-      <c r="P25">
-        <v>0.07371358038137085</v>
-      </c>
-      <c r="Q25">
-        <v>7.681373215663283</v>
-      </c>
-      <c r="R25">
-        <v>7.681373215663283</v>
-      </c>
-      <c r="S25">
-        <v>0.03110415302844989</v>
-      </c>
-      <c r="T25">
-        <v>0.03110415302844989</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.8809556666666666</v>
+      </c>
+      <c r="H31">
+        <v>2.642867</v>
+      </c>
+      <c r="I31">
+        <v>0.1363342828980721</v>
+      </c>
+      <c r="J31">
+        <v>0.1472404836661527</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.797083</v>
+      </c>
+      <c r="N31">
+        <v>7.594166</v>
+      </c>
+      <c r="O31">
+        <v>0.07310711112234373</v>
+      </c>
+      <c r="P31">
+        <v>0.05035531782936668</v>
+      </c>
+      <c r="Q31">
+        <v>3.345061785653666</v>
+      </c>
+      <c r="R31">
+        <v>20.070370713922</v>
+      </c>
+      <c r="S31">
+        <v>0.009967005569614404</v>
+      </c>
+      <c r="T31">
+        <v>0.007414341352358795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.164451</v>
+      </c>
+      <c r="H32">
+        <v>0.328902</v>
+      </c>
+      <c r="I32">
+        <v>0.02544998574298766</v>
+      </c>
+      <c r="J32">
+        <v>0.01832392230057925</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.2072</v>
+      </c>
+      <c r="N32">
+        <v>2.4144</v>
+      </c>
+      <c r="O32">
+        <v>0.02324281680092149</v>
+      </c>
+      <c r="P32">
+        <v>0.01600937869506973</v>
+      </c>
+      <c r="Q32">
+        <v>0.1985252472</v>
+      </c>
+      <c r="R32">
+        <v>0.7941009888000001</v>
+      </c>
+      <c r="S32">
+        <v>0.0005915293562103259</v>
+      </c>
+      <c r="T32">
+        <v>0.0002933546112890066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.164451</v>
+      </c>
+      <c r="H33">
+        <v>0.328902</v>
+      </c>
+      <c r="I33">
+        <v>0.02544998574298766</v>
+      </c>
+      <c r="J33">
+        <v>0.01832392230057925</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.885218</v>
+      </c>
+      <c r="N33">
+        <v>38.655654</v>
+      </c>
+      <c r="O33">
+        <v>0.2480854551142611</v>
+      </c>
+      <c r="P33">
+        <v>0.2563175130846533</v>
+      </c>
+      <c r="Q33">
+        <v>2.118986985318</v>
+      </c>
+      <c r="R33">
+        <v>12.713921911908</v>
+      </c>
+      <c r="S33">
+        <v>0.006313771295700548</v>
+      </c>
+      <c r="T33">
+        <v>0.004696742194040893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.164451</v>
+      </c>
+      <c r="H34">
+        <v>0.328902</v>
+      </c>
+      <c r="I34">
+        <v>0.02544998574298766</v>
+      </c>
+      <c r="J34">
+        <v>0.01832392230057925</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>15.45629366666667</v>
+      </c>
+      <c r="N34">
+        <v>46.368881</v>
+      </c>
+      <c r="O34">
+        <v>0.2975876425742018</v>
+      </c>
+      <c r="P34">
+        <v>0.3074622993686314</v>
+      </c>
+      <c r="Q34">
+        <v>2.541802949777</v>
+      </c>
+      <c r="R34">
+        <v>15.250817698662</v>
+      </c>
+      <c r="S34">
+        <v>0.007573601260802742</v>
+      </c>
+      <c r="T34">
+        <v>0.005633915283988238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.164451</v>
+      </c>
+      <c r="H35">
+        <v>0.328902</v>
+      </c>
+      <c r="I35">
+        <v>0.02544998574298766</v>
+      </c>
+      <c r="J35">
+        <v>0.01832392230057925</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.833258</v>
+      </c>
+      <c r="N35">
+        <v>53.499774</v>
+      </c>
+      <c r="O35">
+        <v>0.3433525088283362</v>
+      </c>
+      <c r="P35">
+        <v>0.3547457513529844</v>
+      </c>
+      <c r="Q35">
+        <v>2.932697111358</v>
+      </c>
+      <c r="R35">
+        <v>17.596182668148</v>
+      </c>
+      <c r="S35">
+        <v>0.008738316454500201</v>
+      </c>
+      <c r="T35">
+        <v>0.006500333584252692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.164451</v>
+      </c>
+      <c r="H36">
+        <v>0.328902</v>
+      </c>
+      <c r="I36">
+        <v>0.02544998574298766</v>
+      </c>
+      <c r="J36">
+        <v>0.01832392230057925</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7595746666666666</v>
+      </c>
+      <c r="N36">
+        <v>2.278724</v>
+      </c>
+      <c r="O36">
+        <v>0.01462446555993567</v>
+      </c>
+      <c r="P36">
+        <v>0.01510973966929427</v>
+      </c>
+      <c r="Q36">
+        <v>0.124912813508</v>
+      </c>
+      <c r="R36">
+        <v>0.749476881048</v>
+      </c>
+      <c r="S36">
+        <v>0.0003721924399991768</v>
+      </c>
+      <c r="T36">
+        <v>0.0002768696956821281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.164451</v>
+      </c>
+      <c r="H37">
+        <v>0.328902</v>
+      </c>
+      <c r="I37">
+        <v>0.02544998574298766</v>
+      </c>
+      <c r="J37">
+        <v>0.01832392230057925</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.797083</v>
+      </c>
+      <c r="N37">
+        <v>7.594166</v>
+      </c>
+      <c r="O37">
+        <v>0.07310711112234373</v>
+      </c>
+      <c r="P37">
+        <v>0.05035531782936668</v>
+      </c>
+      <c r="Q37">
+        <v>0.624434096433</v>
+      </c>
+      <c r="R37">
+        <v>2.497736385732</v>
+      </c>
+      <c r="S37">
+        <v>0.001860574935774663</v>
+      </c>
+      <c r="T37">
+        <v>0.0009227069313262879</v>
       </c>
     </row>
   </sheetData>
